--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucca\Documents\2º SEMESTRE LINHA\CDADOS\Projetos\PROJETO 1\22-2b-cd-p1-grupo_luccampl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8EAEB5-D663-4650-9B4D-FDC85176928C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E53316-A36C-436D-A199-D9FE4D4C48F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7600,15 +7600,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B385" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="76.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="89.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -7649,6 +7649,9 @@
       <c r="E2">
         <v>66</v>
       </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7666,6 +7669,9 @@
       <c r="E3">
         <v>37</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7683,6 +7689,9 @@
       <c r="E4">
         <v>121</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7700,6 +7709,9 @@
       <c r="E5">
         <v>238</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7717,6 +7729,9 @@
       <c r="E6">
         <v>169</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7734,6 +7749,9 @@
       <c r="E7">
         <v>28</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7751,6 +7769,9 @@
       <c r="E8">
         <v>97</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7768,6 +7789,9 @@
       <c r="E9">
         <v>120</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7785,6 +7809,9 @@
       <c r="E10">
         <v>22</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7802,6 +7829,9 @@
       <c r="E11">
         <v>8</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7819,6 +7849,9 @@
       <c r="E12">
         <v>70</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7836,6 +7869,9 @@
       <c r="E13">
         <v>201</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -7853,6 +7889,9 @@
       <c r="E14">
         <v>207</v>
       </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -7870,6 +7909,9 @@
       <c r="E15">
         <v>180</v>
       </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -7887,8 +7929,11 @@
       <c r="E16">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -7904,8 +7949,11 @@
       <c r="E17">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -7921,8 +7969,11 @@
       <c r="E18">
         <v>137</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -7938,8 +7989,11 @@
       <c r="E19">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -7955,8 +8009,11 @@
       <c r="E20">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7972,8 +8029,11 @@
       <c r="E21">
         <v>181</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -7989,8 +8049,11 @@
       <c r="E22">
         <v>128</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -8006,8 +8069,11 @@
       <c r="E23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -8023,8 +8089,11 @@
       <c r="E24">
         <v>161</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -8040,8 +8109,11 @@
       <c r="E25">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -8057,8 +8129,11 @@
       <c r="E26">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -8074,8 +8149,11 @@
       <c r="E27">
         <v>230</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -8091,8 +8169,11 @@
       <c r="E28">
         <v>238</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -8108,8 +8189,11 @@
       <c r="E29">
         <v>219</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -8125,8 +8209,11 @@
       <c r="E30">
         <v>205</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -8142,8 +8229,11 @@
       <c r="E31">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -8159,8 +8249,11 @@
       <c r="E32">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -8176,8 +8269,11 @@
       <c r="E33">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -8193,8 +8289,11 @@
       <c r="E34">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -8210,8 +8309,11 @@
       <c r="E35">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -8227,8 +8329,11 @@
       <c r="E36">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -8244,8 +8349,11 @@
       <c r="E37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -8261,8 +8369,11 @@
       <c r="E38">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -8278,8 +8389,11 @@
       <c r="E39">
         <v>181</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -8295,8 +8409,11 @@
       <c r="E40">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -8312,8 +8429,11 @@
       <c r="E41">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -8329,8 +8449,11 @@
       <c r="E42">
         <v>174</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -8346,8 +8469,11 @@
       <c r="E43">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -8363,8 +8489,11 @@
       <c r="E44">
         <v>182</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -8380,8 +8509,11 @@
       <c r="E45">
         <v>237</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -8397,8 +8529,11 @@
       <c r="E46">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -8414,8 +8549,11 @@
       <c r="E47">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -8431,8 +8569,11 @@
       <c r="E48">
         <v>230</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -8448,8 +8589,11 @@
       <c r="E49">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -8465,8 +8609,11 @@
       <c r="E50">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -8482,8 +8629,11 @@
       <c r="E51">
         <v>106</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -8499,8 +8649,11 @@
       <c r="E52">
         <v>155</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -8516,8 +8669,11 @@
       <c r="E53">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -8533,8 +8689,11 @@
       <c r="E54">
         <v>182</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -8550,8 +8709,11 @@
       <c r="E55">
         <v>163</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -8567,8 +8729,11 @@
       <c r="E56">
         <v>96</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -8584,8 +8749,11 @@
       <c r="E57">
         <v>238</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -8601,8 +8769,11 @@
       <c r="E58">
         <v>160</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -8618,8 +8789,11 @@
       <c r="E59">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -8635,8 +8809,11 @@
       <c r="E60">
         <v>186</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -8652,8 +8829,11 @@
       <c r="E61">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -8669,8 +8849,11 @@
       <c r="E62">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -8686,8 +8869,11 @@
       <c r="E63">
         <v>152</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -8703,8 +8889,11 @@
       <c r="E64">
         <v>147</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -8720,8 +8909,11 @@
       <c r="E65">
         <v>235</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -8737,8 +8929,11 @@
       <c r="E66">
         <v>156</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -8754,8 +8949,11 @@
       <c r="E67">
         <v>167</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -8771,8 +8969,11 @@
       <c r="E68">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -8788,8 +8989,11 @@
       <c r="E69">
         <v>88</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -8805,8 +9009,11 @@
       <c r="E70">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -8822,8 +9029,11 @@
       <c r="E71">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -8839,8 +9049,11 @@
       <c r="E72">
         <v>86</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -8856,8 +9069,11 @@
       <c r="E73">
         <v>46</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -8873,8 +9089,11 @@
       <c r="E74">
         <v>174</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -8890,8 +9109,11 @@
       <c r="E75">
         <v>174</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -8907,8 +9129,11 @@
       <c r="E76">
         <v>103</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -8924,8 +9149,11 @@
       <c r="E77">
         <v>57</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -8941,8 +9169,11 @@
       <c r="E78">
         <v>147</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -8958,8 +9189,11 @@
       <c r="E79">
         <v>196</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -8975,8 +9209,11 @@
       <c r="E80">
         <v>229</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -8992,8 +9229,11 @@
       <c r="E81">
         <v>183</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -9009,8 +9249,11 @@
       <c r="E82">
         <v>204</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -9026,8 +9269,11 @@
       <c r="E83">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -9043,8 +9289,11 @@
       <c r="E84">
         <v>72</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -9060,8 +9309,11 @@
       <c r="E85">
         <v>55</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -9077,8 +9329,11 @@
       <c r="E86">
         <v>104</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -9094,8 +9349,11 @@
       <c r="E87">
         <v>46</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -9111,8 +9369,11 @@
       <c r="E88">
         <v>168</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -9128,8 +9389,11 @@
       <c r="E89">
         <v>107</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -9145,8 +9409,11 @@
       <c r="E90">
         <v>226</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -9162,8 +9429,11 @@
       <c r="E91">
         <v>133</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -9179,8 +9449,11 @@
       <c r="E92">
         <v>110</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -9196,8 +9469,11 @@
       <c r="E93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -9213,8 +9489,11 @@
       <c r="E94">
         <v>156</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -9230,8 +9509,11 @@
       <c r="E95">
         <v>153</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -9247,8 +9529,11 @@
       <c r="E96">
         <v>156</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -9264,8 +9549,11 @@
       <c r="E97">
         <v>84</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -9281,8 +9569,11 @@
       <c r="E98">
         <v>75</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -9298,8 +9589,11 @@
       <c r="E99">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -9315,8 +9609,11 @@
       <c r="E100">
         <v>78</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -9332,8 +9629,11 @@
       <c r="E101">
         <v>168</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -9349,8 +9649,11 @@
       <c r="E102">
         <v>87</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -9366,8 +9669,11 @@
       <c r="E103">
         <v>50</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -9383,8 +9689,11 @@
       <c r="E104">
         <v>206</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -9400,8 +9709,11 @@
       <c r="E105">
         <v>135</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -9417,8 +9729,11 @@
       <c r="E106">
         <v>126</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -9434,8 +9749,11 @@
       <c r="E107">
         <v>166</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -9451,8 +9769,11 @@
       <c r="E108">
         <v>47</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -9468,8 +9789,11 @@
       <c r="E109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -9485,8 +9809,11 @@
       <c r="E110">
         <v>100</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -9502,8 +9829,11 @@
       <c r="E111">
         <v>139</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -9519,8 +9849,11 @@
       <c r="E112">
         <v>21</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -9536,8 +9869,11 @@
       <c r="E113">
         <v>218</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -9553,8 +9889,11 @@
       <c r="E114">
         <v>40</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -9570,8 +9909,11 @@
       <c r="E115">
         <v>160</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -9587,8 +9929,11 @@
       <c r="E116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -9604,8 +9949,11 @@
       <c r="E117">
         <v>42</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -9621,8 +9969,11 @@
       <c r="E118">
         <v>112</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -9638,8 +9989,11 @@
       <c r="E119">
         <v>42</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -9655,8 +10009,11 @@
       <c r="E120">
         <v>76</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -9672,8 +10029,11 @@
       <c r="E121">
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -9689,8 +10049,11 @@
       <c r="E122">
         <v>96</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -9706,8 +10069,11 @@
       <c r="E123">
         <v>140</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -9723,8 +10089,11 @@
       <c r="E124">
         <v>99</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -9740,8 +10109,11 @@
       <c r="E125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -9757,8 +10129,11 @@
       <c r="E126">
         <v>26</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -9774,8 +10149,11 @@
       <c r="E127">
         <v>50</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -9791,8 +10169,11 @@
       <c r="E128">
         <v>91</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -9808,8 +10189,11 @@
       <c r="E129">
         <v>149</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -9825,8 +10209,11 @@
       <c r="E130">
         <v>60</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -9842,8 +10229,11 @@
       <c r="E131">
         <v>185</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -9859,8 +10249,11 @@
       <c r="E132">
         <v>153</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -9876,8 +10269,11 @@
       <c r="E133">
         <v>27</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -9893,8 +10289,11 @@
       <c r="E134">
         <v>72</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -9911,7 +10310,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -9928,7 +10327,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -9945,7 +10344,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -9962,7 +10361,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -9979,7 +10378,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -9996,7 +10395,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -10013,7 +10412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -10030,7 +10429,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -10047,7 +10446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -18330,11 +18729,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F800"/>
   <sheetViews>
-    <sheetView topLeftCell="A738" workbookViewId="0">
-      <selection activeCell="F800" sqref="A401:F800"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="89.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -18372,6 +18774,9 @@
       <c r="E2">
         <v>80</v>
       </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -18389,6 +18794,9 @@
       <c r="E3">
         <v>99</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -18406,6 +18814,9 @@
       <c r="E4">
         <v>68</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -18423,6 +18834,9 @@
       <c r="E5">
         <v>177</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -18440,6 +18854,9 @@
       <c r="E6">
         <v>233</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -18457,6 +18874,9 @@
       <c r="E7">
         <v>204</v>
       </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -18474,6 +18894,9 @@
       <c r="E8">
         <v>133</v>
       </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -18491,6 +18914,9 @@
       <c r="E9">
         <v>65</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -18508,6 +18934,9 @@
       <c r="E10">
         <v>230</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -18525,6 +18954,9 @@
       <c r="E11">
         <v>80</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -18542,6 +18974,9 @@
       <c r="E12">
         <v>126</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -18559,6 +18994,9 @@
       <c r="E13">
         <v>96</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -18576,6 +19014,9 @@
       <c r="E14">
         <v>99</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -18593,6 +19034,9 @@
       <c r="E15">
         <v>22</v>
       </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -18610,8 +19054,11 @@
       <c r="E16">
         <v>196</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -18627,8 +19074,11 @@
       <c r="E17">
         <v>165</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -18644,8 +19094,11 @@
       <c r="E18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -18661,8 +19114,11 @@
       <c r="E19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -18678,8 +19134,11 @@
       <c r="E20">
         <v>201</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -18695,8 +19154,11 @@
       <c r="E21">
         <v>193</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -18712,8 +19174,11 @@
       <c r="E22">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -18729,8 +19194,11 @@
       <c r="E23">
         <v>231</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -18746,8 +19214,11 @@
       <c r="E24">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -18763,8 +19234,11 @@
       <c r="E25">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -18780,8 +19254,11 @@
       <c r="E26">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -18797,8 +19274,11 @@
       <c r="E27">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -18814,8 +19294,11 @@
       <c r="E28">
         <v>181</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -18831,8 +19314,11 @@
       <c r="E29">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -18848,8 +19334,11 @@
       <c r="E30">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -18865,8 +19354,11 @@
       <c r="E31">
         <v>160</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -18882,8 +19374,11 @@
       <c r="E32">
         <v>225</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -18899,8 +19394,11 @@
       <c r="E33">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -18916,8 +19414,11 @@
       <c r="E34">
         <v>197</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -18933,8 +19434,11 @@
       <c r="E35">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -18950,8 +19454,11 @@
       <c r="E36">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -18967,8 +19474,11 @@
       <c r="E37">
         <v>214</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -18984,8 +19494,11 @@
       <c r="E38">
         <v>217</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -19001,8 +19514,11 @@
       <c r="E39">
         <v>148</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -19018,8 +19534,11 @@
       <c r="E40">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -19035,8 +19554,11 @@
       <c r="E41">
         <v>198</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -19052,8 +19574,11 @@
       <c r="E42">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -19069,8 +19594,11 @@
       <c r="E43">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -19086,8 +19614,11 @@
       <c r="E44">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -19103,8 +19634,11 @@
       <c r="E45">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -19120,8 +19654,11 @@
       <c r="E46">
         <v>204</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -19137,8 +19674,11 @@
       <c r="E47">
         <v>162</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -19154,8 +19694,11 @@
       <c r="E48">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -19171,8 +19714,11 @@
       <c r="E49">
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -19188,8 +19734,11 @@
       <c r="E50">
         <v>215</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -19205,8 +19754,11 @@
       <c r="E51">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -19222,8 +19774,11 @@
       <c r="E52">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -19239,8 +19794,11 @@
       <c r="E53">
         <v>221</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -19256,8 +19814,11 @@
       <c r="E54">
         <v>78</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -19273,8 +19834,11 @@
       <c r="E55">
         <v>99</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -19290,8 +19854,11 @@
       <c r="E56">
         <v>103</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -19307,8 +19874,11 @@
       <c r="E57">
         <v>202</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -19324,8 +19894,11 @@
       <c r="E58">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -19341,8 +19914,11 @@
       <c r="E59">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -19358,8 +19934,11 @@
       <c r="E60">
         <v>212</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -19375,8 +19954,11 @@
       <c r="E61">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -19392,8 +19974,11 @@
       <c r="E62">
         <v>80</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -19409,8 +19994,11 @@
       <c r="E63">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -19426,8 +20014,11 @@
       <c r="E64">
         <v>185</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -19443,8 +20034,11 @@
       <c r="E65">
         <v>52</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -19460,8 +20054,11 @@
       <c r="E66">
         <v>52</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -19477,8 +20074,11 @@
       <c r="E67">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -19494,8 +20094,11 @@
       <c r="E68">
         <v>192</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -19511,8 +20114,11 @@
       <c r="E69">
         <v>140</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -19528,8 +20134,11 @@
       <c r="E70">
         <v>36</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -19545,8 +20154,11 @@
       <c r="E71">
         <v>116</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -19562,8 +20174,11 @@
       <c r="E72">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -19579,8 +20194,11 @@
       <c r="E73">
         <v>212</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -19596,8 +20214,11 @@
       <c r="E74">
         <v>135</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -19613,8 +20234,11 @@
       <c r="E75">
         <v>158</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -19630,8 +20254,11 @@
       <c r="E76">
         <v>201</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -19647,8 +20274,11 @@
       <c r="E77">
         <v>130</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -19664,8 +20294,11 @@
       <c r="E78">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -19681,8 +20314,11 @@
       <c r="E79">
         <v>49</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -19698,8 +20334,11 @@
       <c r="E80">
         <v>140</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -19715,8 +20354,11 @@
       <c r="E81">
         <v>213</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -19732,8 +20374,11 @@
       <c r="E82">
         <v>71</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -19749,8 +20394,11 @@
       <c r="E83">
         <v>64</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -19766,8 +20414,11 @@
       <c r="E84">
         <v>174</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -19783,8 +20434,11 @@
       <c r="E85">
         <v>165</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -19800,8 +20454,11 @@
       <c r="E86">
         <v>228</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -19817,8 +20474,11 @@
       <c r="E87">
         <v>29</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -19834,8 +20494,11 @@
       <c r="E88">
         <v>61</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -19851,8 +20514,11 @@
       <c r="E89">
         <v>125</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -19868,8 +20534,11 @@
       <c r="E90">
         <v>171</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -19885,8 +20554,11 @@
       <c r="E91">
         <v>196</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -19902,8 +20574,11 @@
       <c r="E92">
         <v>133</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -19919,8 +20594,11 @@
       <c r="E93">
         <v>77</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -19936,8 +20614,11 @@
       <c r="E94">
         <v>158</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -19953,8 +20634,11 @@
       <c r="E95">
         <v>88</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -19970,8 +20654,11 @@
       <c r="E96">
         <v>136</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -19987,8 +20674,11 @@
       <c r="E97">
         <v>101</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -20004,8 +20694,11 @@
       <c r="E98">
         <v>140</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -20021,8 +20714,11 @@
       <c r="E99">
         <v>17</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -20038,8 +20734,11 @@
       <c r="E100">
         <v>137</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -20055,8 +20754,11 @@
       <c r="E101">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -20072,8 +20774,11 @@
       <c r="E102">
         <v>221</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -20089,8 +20794,11 @@
       <c r="E103">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -20106,8 +20814,11 @@
       <c r="E104">
         <v>95</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -20123,8 +20834,11 @@
       <c r="E105">
         <v>185</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -20140,8 +20854,11 @@
       <c r="E106">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -20157,8 +20874,11 @@
       <c r="E107">
         <v>103</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -20174,8 +20894,11 @@
       <c r="E108">
         <v>188</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -20191,8 +20914,11 @@
       <c r="E109">
         <v>232</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -20208,8 +20934,11 @@
       <c r="E110">
         <v>136</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -20225,8 +20954,11 @@
       <c r="E111">
         <v>21</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -20242,8 +20974,11 @@
       <c r="E112">
         <v>230</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -20259,8 +20994,11 @@
       <c r="E113">
         <v>149</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -20276,8 +21014,11 @@
       <c r="E114">
         <v>51</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -20293,8 +21034,11 @@
       <c r="E115">
         <v>18</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -20310,8 +21054,11 @@
       <c r="E116">
         <v>117</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -20327,8 +21074,11 @@
       <c r="E117">
         <v>39</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -20344,8 +21094,11 @@
       <c r="E118">
         <v>31</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -20361,8 +21114,11 @@
       <c r="E119">
         <v>159</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -20378,8 +21134,11 @@
       <c r="E120">
         <v>66</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -20395,8 +21154,11 @@
       <c r="E121">
         <v>230</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -20412,8 +21174,11 @@
       <c r="E122">
         <v>43</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -20429,8 +21194,11 @@
       <c r="E123">
         <v>60</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -20446,8 +21214,11 @@
       <c r="E124">
         <v>197</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -20463,8 +21234,11 @@
       <c r="E125">
         <v>217</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -20480,8 +21254,11 @@
       <c r="E126">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -20497,8 +21274,11 @@
       <c r="E127">
         <v>189</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -20514,8 +21294,11 @@
       <c r="E128">
         <v>51</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -20531,8 +21314,11 @@
       <c r="E129">
         <v>64</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -20548,8 +21334,11 @@
       <c r="E130">
         <v>214</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -20565,8 +21354,11 @@
       <c r="E131">
         <v>164</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -20582,8 +21374,11 @@
       <c r="E132">
         <v>222</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -20599,8 +21394,11 @@
       <c r="E133">
         <v>83</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -20616,8 +21414,11 @@
       <c r="E134">
         <v>229</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -20634,7 +21435,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -20651,7 +21452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -20668,7 +21469,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -20685,7 +21486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -20702,7 +21503,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -20719,7 +21520,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -20736,7 +21537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -20753,7 +21554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -20770,7 +21571,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>6</v>
       </c>

--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucca\Documents\2º SEMESTRE LINHA\CDADOS\Projetos\PROJETO 1\22-2b-cd-p1-grupo_luccampl\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08b998120dac5dfe/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E53316-A36C-436D-A199-D9FE4D4C48F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB5593C-5E89-4E59-84BB-A43F24850310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -7600,15 +7600,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F134"/>
+    <sheetView topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="89.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="76.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -10309,6 +10309,9 @@
       <c r="E135">
         <v>224</v>
       </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
@@ -10326,6 +10329,9 @@
       <c r="E136">
         <v>104</v>
       </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -10343,6 +10349,9 @@
       <c r="E137">
         <v>215</v>
       </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
@@ -10360,6 +10369,9 @@
       <c r="E138">
         <v>99</v>
       </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
@@ -10377,6 +10389,9 @@
       <c r="E139">
         <v>99</v>
       </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
@@ -10394,6 +10409,9 @@
       <c r="E140">
         <v>156</v>
       </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
@@ -10411,6 +10429,9 @@
       <c r="E141">
         <v>51</v>
       </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
@@ -10428,6 +10449,9 @@
       <c r="E142">
         <v>88</v>
       </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
@@ -10445,6 +10469,9 @@
       <c r="E143">
         <v>10</v>
       </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
@@ -10462,8 +10489,11 @@
       <c r="E144">
         <v>95</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -10479,8 +10509,11 @@
       <c r="E145">
         <v>87</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -10496,8 +10529,11 @@
       <c r="E146">
         <v>20</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -10513,8 +10549,11 @@
       <c r="E147">
         <v>182</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -10530,8 +10569,11 @@
       <c r="E148">
         <v>61</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -10547,8 +10589,11 @@
       <c r="E149">
         <v>123</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -10564,8 +10609,11 @@
       <c r="E150">
         <v>210</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -10581,8 +10629,11 @@
       <c r="E151">
         <v>34</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -10598,8 +10649,11 @@
       <c r="E152">
         <v>122</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -10615,8 +10669,11 @@
       <c r="E153">
         <v>203</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -10632,8 +10689,11 @@
       <c r="E154">
         <v>60</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -10649,8 +10709,11 @@
       <c r="E155">
         <v>220</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -10666,8 +10729,11 @@
       <c r="E156">
         <v>37</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -10683,8 +10749,11 @@
       <c r="E157">
         <v>236</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -10700,8 +10769,11 @@
       <c r="E158">
         <v>186</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -10717,8 +10789,11 @@
       <c r="E159">
         <v>59</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -10734,8 +10809,11 @@
       <c r="E160">
         <v>106</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -10751,8 +10829,11 @@
       <c r="E161">
         <v>204</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -10768,8 +10849,11 @@
       <c r="E162">
         <v>129</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -10785,8 +10869,11 @@
       <c r="E163">
         <v>131</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -10802,8 +10889,11 @@
       <c r="E164">
         <v>63</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -10819,8 +10909,11 @@
       <c r="E165">
         <v>88</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -10836,8 +10929,11 @@
       <c r="E166">
         <v>128</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -10853,8 +10949,11 @@
       <c r="E167">
         <v>29</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -10870,8 +10969,11 @@
       <c r="E168">
         <v>104</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -10887,8 +10989,11 @@
       <c r="E169">
         <v>151</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -10904,8 +11009,11 @@
       <c r="E170">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -10921,8 +11029,11 @@
       <c r="E171">
         <v>189</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -10938,8 +11049,11 @@
       <c r="E172">
         <v>22</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -10955,8 +11069,11 @@
       <c r="E173">
         <v>19</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -10972,8 +11089,11 @@
       <c r="E174">
         <v>165</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -10989,8 +11109,11 @@
       <c r="E175">
         <v>41</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -11006,8 +11129,11 @@
       <c r="E176">
         <v>133</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -11023,8 +11149,11 @@
       <c r="E177">
         <v>162</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -11040,8 +11169,11 @@
       <c r="E178">
         <v>100</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -11057,8 +11189,11 @@
       <c r="E179">
         <v>182</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -11074,8 +11209,11 @@
       <c r="E180">
         <v>194</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -11091,8 +11229,11 @@
       <c r="E181">
         <v>82</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -11108,8 +11249,11 @@
       <c r="E182">
         <v>132</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -11125,8 +11269,11 @@
       <c r="E183">
         <v>103</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -11142,8 +11289,11 @@
       <c r="E184">
         <v>133</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -11159,8 +11309,11 @@
       <c r="E185">
         <v>139</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -11176,8 +11329,11 @@
       <c r="E186">
         <v>204</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -11193,8 +11349,11 @@
       <c r="E187">
         <v>107</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -11210,8 +11369,11 @@
       <c r="E188">
         <v>107</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -11227,8 +11389,11 @@
       <c r="E189">
         <v>58</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -11244,8 +11409,11 @@
       <c r="E190">
         <v>229</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>6</v>
       </c>
@@ -11261,8 +11429,11 @@
       <c r="E191">
         <v>148</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -11278,8 +11449,11 @@
       <c r="E192">
         <v>92</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -11295,8 +11469,11 @@
       <c r="E193">
         <v>26</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -11312,8 +11489,11 @@
       <c r="E194">
         <v>138</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -11329,8 +11509,11 @@
       <c r="E195">
         <v>232</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -11346,8 +11529,11 @@
       <c r="E196">
         <v>90</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -11363,8 +11549,11 @@
       <c r="E197">
         <v>30</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -11380,8 +11569,11 @@
       <c r="E198">
         <v>106</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -11397,8 +11589,11 @@
       <c r="E199">
         <v>48</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -11414,8 +11609,11 @@
       <c r="E200">
         <v>29</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -11431,8 +11629,11 @@
       <c r="E201">
         <v>148</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -11448,8 +11649,11 @@
       <c r="E202">
         <v>22</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -11465,8 +11669,11 @@
       <c r="E203">
         <v>225</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -11482,8 +11689,11 @@
       <c r="E204">
         <v>146</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -11499,8 +11709,11 @@
       <c r="E205">
         <v>130</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -11516,8 +11729,11 @@
       <c r="E206">
         <v>194</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -11533,8 +11749,11 @@
       <c r="E207">
         <v>173</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -11550,8 +11769,11 @@
       <c r="E208">
         <v>145</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -11567,8 +11789,11 @@
       <c r="E209">
         <v>203</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -11584,8 +11809,11 @@
       <c r="E210">
         <v>131</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -11601,8 +11829,11 @@
       <c r="E211">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -11618,8 +11849,11 @@
       <c r="E212">
         <v>49</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -11635,8 +11869,11 @@
       <c r="E213">
         <v>71</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -11652,8 +11889,11 @@
       <c r="E214">
         <v>197</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -11669,8 +11909,11 @@
       <c r="E215">
         <v>120</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -11686,8 +11929,11 @@
       <c r="E216">
         <v>6</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -11703,8 +11949,11 @@
       <c r="E217">
         <v>205</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -11720,8 +11969,11 @@
       <c r="E218">
         <v>89</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -11737,8 +11989,11 @@
       <c r="E219">
         <v>214</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -11754,8 +12009,11 @@
       <c r="E220">
         <v>214</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -11771,8 +12029,11 @@
       <c r="E221">
         <v>56</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -11788,8 +12049,11 @@
       <c r="E222">
         <v>41</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -11805,8 +12069,11 @@
       <c r="E223">
         <v>212</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -11822,8 +12089,11 @@
       <c r="E224">
         <v>233</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -11839,8 +12109,11 @@
       <c r="E225">
         <v>107</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -11856,8 +12129,11 @@
       <c r="E226">
         <v>147</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -11873,8 +12149,11 @@
       <c r="E227">
         <v>105</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -11890,8 +12169,11 @@
       <c r="E228">
         <v>197</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -11907,8 +12189,11 @@
       <c r="E229">
         <v>161</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -11924,8 +12209,11 @@
       <c r="E230">
         <v>58</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -11941,8 +12229,11 @@
       <c r="E231">
         <v>20</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -11958,8 +12249,11 @@
       <c r="E232">
         <v>55</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -11975,8 +12269,11 @@
       <c r="E233">
         <v>212</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -11992,8 +12289,11 @@
       <c r="E234">
         <v>204</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -12009,8 +12309,11 @@
       <c r="E235">
         <v>68</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -12026,8 +12329,11 @@
       <c r="E236">
         <v>166</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -12043,8 +12349,11 @@
       <c r="E237">
         <v>6</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -12060,8 +12369,11 @@
       <c r="E238">
         <v>53</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -12077,8 +12389,11 @@
       <c r="E239">
         <v>195</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -12094,8 +12409,11 @@
       <c r="E240">
         <v>131</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -12111,8 +12429,11 @@
       <c r="E241">
         <v>32</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -12128,8 +12449,11 @@
       <c r="E242">
         <v>102</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -12145,8 +12469,11 @@
       <c r="E243">
         <v>166</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -12162,8 +12489,11 @@
       <c r="E244">
         <v>226</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -12179,8 +12509,11 @@
       <c r="E245">
         <v>206</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -12196,8 +12529,11 @@
       <c r="E246">
         <v>25</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -12213,8 +12549,11 @@
       <c r="E247">
         <v>192</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -12230,8 +12569,11 @@
       <c r="E248">
         <v>94</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -12247,8 +12589,11 @@
       <c r="E249">
         <v>235</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -12264,8 +12609,11 @@
       <c r="E250">
         <v>76</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -12281,8 +12629,11 @@
       <c r="E251">
         <v>96</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -12298,8 +12649,11 @@
       <c r="E252">
         <v>61</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -12315,8 +12669,11 @@
       <c r="E253">
         <v>231</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -12332,8 +12689,11 @@
       <c r="E254">
         <v>168</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -12349,8 +12709,11 @@
       <c r="E255">
         <v>224</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -12366,8 +12729,11 @@
       <c r="E256">
         <v>111</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -12383,8 +12749,11 @@
       <c r="E257">
         <v>123</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -12400,8 +12769,11 @@
       <c r="E258">
         <v>33</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -12417,8 +12789,11 @@
       <c r="E259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -12434,8 +12809,11 @@
       <c r="E260">
         <v>62</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -12451,8 +12829,11 @@
       <c r="E261">
         <v>197</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -12468,8 +12849,11 @@
       <c r="E262">
         <v>236</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -12485,8 +12869,11 @@
       <c r="E263">
         <v>204</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -12502,8 +12889,11 @@
       <c r="E264">
         <v>143</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -12519,8 +12909,11 @@
       <c r="E265">
         <v>115</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -12536,8 +12929,11 @@
       <c r="E266">
         <v>39</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -12553,8 +12949,11 @@
       <c r="E267">
         <v>211</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -12570,8 +12969,11 @@
       <c r="E268">
         <v>138</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -12588,7 +12990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -12605,7 +13007,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -12622,7 +13024,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -18729,13 +19131,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F800"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="89.109375" customWidth="1"/>
+    <col min="2" max="2" width="72.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -21434,6 +21836,9 @@
       <c r="E135">
         <v>52</v>
       </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
@@ -21451,6 +21856,9 @@
       <c r="E136">
         <v>45</v>
       </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -21468,6 +21876,9 @@
       <c r="E137">
         <v>109</v>
       </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
@@ -21485,6 +21896,9 @@
       <c r="E138">
         <v>2</v>
       </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
@@ -21502,6 +21916,9 @@
       <c r="E139">
         <v>126</v>
       </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
@@ -21519,6 +21936,9 @@
       <c r="E140">
         <v>82</v>
       </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
@@ -21536,6 +21956,9 @@
       <c r="E141">
         <v>60</v>
       </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
@@ -21553,6 +21976,9 @@
       <c r="E142">
         <v>9</v>
       </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
@@ -21570,6 +21996,9 @@
       <c r="E143">
         <v>131</v>
       </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
@@ -21587,8 +22016,11 @@
       <c r="E144">
         <v>92</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -21604,8 +22036,11 @@
       <c r="E145">
         <v>88</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -21621,8 +22056,11 @@
       <c r="E146">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -21638,8 +22076,11 @@
       <c r="E147">
         <v>81</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -21655,8 +22096,11 @@
       <c r="E148">
         <v>85</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -21672,8 +22116,11 @@
       <c r="E149">
         <v>205</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -21689,8 +22136,11 @@
       <c r="E150">
         <v>93</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -21706,8 +22156,11 @@
       <c r="E151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -21723,8 +22176,11 @@
       <c r="E152">
         <v>46</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -21740,8 +22196,11 @@
       <c r="E153">
         <v>171</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -21757,8 +22216,11 @@
       <c r="E154">
         <v>198</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -21774,8 +22236,11 @@
       <c r="E155">
         <v>32</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -21791,8 +22256,11 @@
       <c r="E156">
         <v>204</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -21808,8 +22276,11 @@
       <c r="E157">
         <v>136</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -21825,8 +22296,11 @@
       <c r="E158">
         <v>147</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -21842,8 +22316,11 @@
       <c r="E159">
         <v>235</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -21859,8 +22336,11 @@
       <c r="E160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -21876,8 +22356,11 @@
       <c r="E161">
         <v>218</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -21893,8 +22376,11 @@
       <c r="E162">
         <v>112</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -21910,8 +22396,11 @@
       <c r="E163">
         <v>225</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -21927,8 +22416,11 @@
       <c r="E164">
         <v>164</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -21944,8 +22436,11 @@
       <c r="E165">
         <v>155</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -21961,8 +22456,11 @@
       <c r="E166">
         <v>201</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -21978,8 +22476,11 @@
       <c r="E167">
         <v>66</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -21995,8 +22496,11 @@
       <c r="E168">
         <v>190</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -22012,8 +22516,11 @@
       <c r="E169">
         <v>165</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -22029,8 +22536,11 @@
       <c r="E170">
         <v>99</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -22046,8 +22556,11 @@
       <c r="E171">
         <v>224</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -22063,8 +22576,11 @@
       <c r="E172">
         <v>28</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -22080,8 +22596,11 @@
       <c r="E173">
         <v>84</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -22097,8 +22616,11 @@
       <c r="E174">
         <v>32</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -22114,8 +22636,11 @@
       <c r="E175">
         <v>86</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -22131,8 +22656,11 @@
       <c r="E176">
         <v>130</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -22148,8 +22676,11 @@
       <c r="E177">
         <v>185</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -22165,8 +22696,11 @@
       <c r="E178">
         <v>53</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -22182,8 +22716,11 @@
       <c r="E179">
         <v>168</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -22199,8 +22736,11 @@
       <c r="E180">
         <v>221</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -22216,8 +22756,11 @@
       <c r="E181">
         <v>147</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -22233,8 +22776,11 @@
       <c r="E182">
         <v>132</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -22250,8 +22796,11 @@
       <c r="E183">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -22267,8 +22816,11 @@
       <c r="E184">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -22284,8 +22836,11 @@
       <c r="E185">
         <v>170</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -22301,8 +22856,11 @@
       <c r="E186">
         <v>173</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -22318,8 +22876,11 @@
       <c r="E187">
         <v>45</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -22335,8 +22896,11 @@
       <c r="E188">
         <v>203</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -22352,8 +22916,11 @@
       <c r="E189">
         <v>129</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -22369,8 +22936,11 @@
       <c r="E190">
         <v>118</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>6</v>
       </c>
@@ -22386,8 +22956,11 @@
       <c r="E191">
         <v>19</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -22403,8 +22976,11 @@
       <c r="E192">
         <v>168</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -22420,8 +22996,11 @@
       <c r="E193">
         <v>92</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -22437,8 +23016,11 @@
       <c r="E194">
         <v>139</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -22454,8 +23036,11 @@
       <c r="E195">
         <v>27</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -22471,8 +23056,11 @@
       <c r="E196">
         <v>216</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -22488,8 +23076,11 @@
       <c r="E197">
         <v>198</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -22505,8 +23096,11 @@
       <c r="E198">
         <v>149</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -22522,8 +23116,11 @@
       <c r="E199">
         <v>28</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -22539,8 +23136,11 @@
       <c r="E200">
         <v>80</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -22556,8 +23156,11 @@
       <c r="E201">
         <v>80</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -22573,8 +23176,11 @@
       <c r="E202">
         <v>11</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -22590,8 +23196,11 @@
       <c r="E203">
         <v>74</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -22607,8 +23216,11 @@
       <c r="E204">
         <v>115</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -22624,8 +23236,11 @@
       <c r="E205">
         <v>117</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -22641,8 +23256,11 @@
       <c r="E206">
         <v>124</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -22658,8 +23276,11 @@
       <c r="E207">
         <v>224</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -22675,8 +23296,11 @@
       <c r="E208">
         <v>15</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -22692,8 +23316,11 @@
       <c r="E209">
         <v>157</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -22709,8 +23336,11 @@
       <c r="E210">
         <v>222</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -22726,8 +23356,11 @@
       <c r="E211">
         <v>134</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -22743,8 +23376,11 @@
       <c r="E212">
         <v>221</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -22760,8 +23396,11 @@
       <c r="E213">
         <v>145</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -22777,8 +23416,11 @@
       <c r="E214">
         <v>169</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -22794,8 +23436,11 @@
       <c r="E215">
         <v>229</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -22811,8 +23456,11 @@
       <c r="E216">
         <v>94</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -22828,8 +23476,11 @@
       <c r="E217">
         <v>65</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -22845,8 +23496,11 @@
       <c r="E218">
         <v>112</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -22862,8 +23516,11 @@
       <c r="E219">
         <v>235</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -22879,8 +23536,11 @@
       <c r="E220">
         <v>5</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -22896,8 +23556,11 @@
       <c r="E221">
         <v>208</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -22913,8 +23576,11 @@
       <c r="E222">
         <v>232</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -22930,8 +23596,11 @@
       <c r="E223">
         <v>11</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -22947,8 +23616,11 @@
       <c r="E224">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -22964,8 +23636,11 @@
       <c r="E225">
         <v>120</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -22981,8 +23656,11 @@
       <c r="E226">
         <v>66</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -22998,8 +23676,11 @@
       <c r="E227">
         <v>129</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -23015,8 +23696,11 @@
       <c r="E228">
         <v>153</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -23032,8 +23716,11 @@
       <c r="E229">
         <v>96</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -23049,8 +23736,11 @@
       <c r="E230">
         <v>43</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -23066,8 +23756,11 @@
       <c r="E231">
         <v>163</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -23083,8 +23776,11 @@
       <c r="E232">
         <v>216</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -23100,8 +23796,11 @@
       <c r="E233">
         <v>9</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -23117,8 +23816,11 @@
       <c r="E234">
         <v>236</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -23134,8 +23836,11 @@
       <c r="E235">
         <v>143</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -23151,8 +23856,11 @@
       <c r="E236">
         <v>152</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -23168,8 +23876,11 @@
       <c r="E237">
         <v>146</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -23185,8 +23896,11 @@
       <c r="E238">
         <v>67</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -23202,8 +23916,11 @@
       <c r="E239">
         <v>203</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -23219,8 +23936,11 @@
       <c r="E240">
         <v>70</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -23236,8 +23956,11 @@
       <c r="E241">
         <v>172</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -23253,8 +23976,11 @@
       <c r="E242">
         <v>111</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -23270,8 +23996,11 @@
       <c r="E243">
         <v>137</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -23287,8 +24016,11 @@
       <c r="E244">
         <v>123</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -23304,8 +24036,11 @@
       <c r="E245">
         <v>55</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -23321,8 +24056,11 @@
       <c r="E246">
         <v>12</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -23338,8 +24076,11 @@
       <c r="E247">
         <v>216</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -23355,8 +24096,11 @@
       <c r="E248">
         <v>161</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -23372,8 +24116,11 @@
       <c r="E249">
         <v>173</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -23389,8 +24136,11 @@
       <c r="E250">
         <v>101</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -23406,8 +24156,11 @@
       <c r="E251">
         <v>80</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -23423,8 +24176,11 @@
       <c r="E252">
         <v>128</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -23440,8 +24196,11 @@
       <c r="E253">
         <v>155</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -23457,8 +24216,11 @@
       <c r="E254">
         <v>157</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -23474,8 +24236,11 @@
       <c r="E255">
         <v>13</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -23491,8 +24256,11 @@
       <c r="E256">
         <v>219</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -23508,8 +24276,11 @@
       <c r="E257">
         <v>238</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -23525,8 +24296,11 @@
       <c r="E258">
         <v>146</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -23542,8 +24316,11 @@
       <c r="E259">
         <v>122</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -23559,8 +24336,11 @@
       <c r="E260">
         <v>178</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -23576,8 +24356,11 @@
       <c r="E261">
         <v>35</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -23593,8 +24376,11 @@
       <c r="E262">
         <v>44</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -23610,8 +24396,11 @@
       <c r="E263">
         <v>61</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -23627,8 +24416,11 @@
       <c r="E264">
         <v>200</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -23644,8 +24436,11 @@
       <c r="E265">
         <v>191</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -23661,8 +24456,11 @@
       <c r="E266">
         <v>74</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -23678,8 +24476,11 @@
       <c r="E267">
         <v>171</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -23695,8 +24496,11 @@
       <c r="E268">
         <v>43</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -23713,7 +24517,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -23730,7 +24534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -23747,7 +24551,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>6</v>
       </c>
